--- a/xlsx/选举人票_intext.xlsx
+++ b/xlsx/选举人票_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
   <si>
     <t>选举人票</t>
   </si>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E6%8E%A5%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>間接選舉</t>
+    <t>间接选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國副總統</t>
+    <t>美国副总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0</t>
   </si>
   <si>
-    <t>緬因</t>
+    <t>缅因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E4%BF%A1%E9%80%89%E4%B8%BE%E4%BA%BA</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>新澤西</t>
+    <t>新泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%96%AF</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E4%BA%BA%E6%9A%B4%E6%94%BF</t>
   </si>
   <si>
-    <t>多數人暴政</t>
+    <t>多数人暴政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E5%8A%BE</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E9%BB%A8</t>
   </si>
   <si>
-    <t>民主共和黨</t>
+    <t>民主共和党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94</t>
@@ -323,15 +323,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>美国总统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%8C%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
@@ -341,19 +335,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%B0%8D%E5%A4%9A%E6%95%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>相對多數制</t>
+    <t>相对多数制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%B8</t>
   </si>
   <si>
-    <t>普選</t>
+    <t>普选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%B0%8D%E5%A4%9A%E6%95%B8</t>
   </si>
   <si>
-    <t>相對多數</t>
+    <t>相对多数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
@@ -365,9 +359,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%B0%83%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
@@ -473,9 +464,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
   </si>
   <si>
@@ -557,9 +545,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
   </si>
   <si>
@@ -683,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1824%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -695,9 +680,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%98%86%E8%A5%BF%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·昆西·亞當斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%91%9F%E7%A6%8F%E5%BE%B7%C2%B7B%C2%B7%E6%B5%B7%E6%96%AF</t>
   </si>
   <si>
@@ -713,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2000年美國總統選舉</t>
+    <t>2000年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -725,19 +707,19 @@
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2016年美國總統選舉</t>
+    <t>2016年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納德·川普</t>
+    <t>唐纳德·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E5%A4%9A%E6%95%B8</t>
   </si>
   <si>
-    <t>絕對多數</t>
+    <t>绝对多数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1972%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -755,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/1984%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1984年美國總統選舉</t>
+    <t>1984年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%9B%B7%E6%A0%B9</t>
@@ -773,13 +755,13 @@
     <t>https://zh.wikipedia.org/wiki/1992%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1992年美國總統選舉</t>
+    <t>1992年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%96%E6%93%BA%E5%B7%9E</t>
   </si>
   <si>
-    <t>搖擺州</t>
+    <t>摇摆州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -851,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/1884%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1884年美國總統選舉</t>
+    <t>1884年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1920%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -875,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/1936%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1936年美國總統選舉</t>
+    <t>1936年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1948%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -947,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/2020%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2020年美國總統選舉</t>
+    <t>2020年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%88%9D%E9%80%89</t>
@@ -959,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E6%98%9F%E6%9C%9F%E4%BA%8C</t>
   </si>
   <si>
-    <t>超級星期二</t>
+    <t>超级星期二</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E6%8F%90%E5%90%8D%E5%A4%A7%E4%BC%9A</t>
@@ -977,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
@@ -995,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -1019,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -1067,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -1079,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -1109,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -1139,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -1151,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
@@ -1175,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -1217,13 +1199,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -1235,13 +1217,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -1289,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -1301,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -1331,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -1373,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -1385,13 +1367,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -1403,13 +1385,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -1421,13 +1403,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -1475,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1487,13 +1469,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1505,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1517,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1529,13 +1511,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1559,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1631,15 +1613,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1649,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1703,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1739,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1757,7 +1736,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1793,19 +1772,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1817,7 +1796,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1835,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3729,7 +3708,7 @@
         <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="G53" t="n">
         <v>49</v>
@@ -3755,10 +3734,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
@@ -3784,10 +3763,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3813,10 +3792,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3842,10 +3821,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>8</v>
@@ -3871,10 +3850,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -3900,10 +3879,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -3929,10 +3908,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3958,10 +3937,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3987,10 +3966,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4016,10 +3995,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4045,10 +4024,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4074,10 +4053,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4103,10 +4082,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4132,10 +4111,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4161,10 +4140,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4190,10 +4169,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4219,10 +4198,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4248,10 +4227,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4277,10 +4256,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4306,10 +4285,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4335,10 +4314,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4364,10 +4343,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4393,10 +4372,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4422,10 +4401,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4451,10 +4430,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4480,10 +4459,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4509,10 +4488,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4538,10 +4517,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4567,10 +4546,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4596,10 +4575,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4625,10 +4604,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4654,10 +4633,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4683,10 +4662,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4712,10 +4691,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4741,10 +4720,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4770,10 +4749,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4799,10 +4778,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4828,10 +4807,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4857,10 +4836,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4886,10 +4865,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4915,10 +4894,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4944,10 +4923,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4973,10 +4952,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5002,10 +4981,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5031,10 +5010,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5060,10 +5039,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5089,10 +5068,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5118,10 +5097,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5147,10 +5126,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5176,10 +5155,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5205,10 +5184,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5234,10 +5213,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5263,10 +5242,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5292,10 +5271,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5321,10 +5300,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5350,10 +5329,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5379,10 +5358,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5408,10 +5387,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>13</v>
@@ -5437,10 +5416,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
@@ -5466,10 +5445,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5495,10 +5474,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>6</v>
@@ -5524,10 +5503,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>50</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5553,10 +5532,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5582,10 +5561,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5611,10 +5590,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -5640,10 +5619,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5669,10 +5648,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5698,10 +5677,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5727,10 +5706,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5756,10 +5735,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5785,10 +5764,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F124" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5814,10 +5793,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5843,10 +5822,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5872,10 +5851,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5901,10 +5880,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5930,10 +5909,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5959,10 +5938,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6017,10 +5996,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6046,10 +6025,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6075,10 +6054,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6104,10 +6083,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6133,10 +6112,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6162,10 +6141,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>9</v>
@@ -6220,10 +6199,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -6249,10 +6228,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6307,10 +6286,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6336,10 +6315,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6365,10 +6344,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6394,10 +6373,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6423,10 +6402,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6452,10 +6431,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6481,10 +6460,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6510,10 +6489,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6539,10 +6518,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6568,10 +6547,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6597,10 +6576,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6626,10 +6605,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6655,10 +6634,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6684,10 +6663,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F155" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6713,10 +6692,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6742,10 +6721,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6771,10 +6750,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6800,10 +6779,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6829,10 +6808,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6858,10 +6837,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6887,10 +6866,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6916,10 +6895,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6945,10 +6924,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6974,10 +6953,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7003,10 +6982,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7032,10 +7011,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7061,10 +7040,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7090,10 +7069,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>5</v>
@@ -7119,10 +7098,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7148,10 +7127,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7177,10 +7156,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7206,10 +7185,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7235,10 +7214,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7264,10 +7243,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7293,10 +7272,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7322,10 +7301,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7351,10 +7330,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7380,10 +7359,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7409,10 +7388,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7438,10 +7417,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7467,10 +7446,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7496,10 +7475,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7525,10 +7504,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7554,10 +7533,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7583,10 +7562,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7612,10 +7591,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7641,10 +7620,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7670,10 +7649,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7699,10 +7678,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7728,10 +7707,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7757,10 +7736,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7786,10 +7765,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7815,10 +7794,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F194" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="G194" t="n">
         <v>6</v>
@@ -7844,10 +7823,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7873,10 +7852,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7902,10 +7881,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7989,10 +7968,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8018,10 +7997,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8047,10 +8026,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8076,10 +8055,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8105,10 +8084,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8134,10 +8113,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8163,10 +8142,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8192,10 +8171,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8221,10 +8200,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8250,10 +8229,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8279,10 +8258,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8308,10 +8287,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -8337,10 +8316,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8366,10 +8345,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8395,10 +8374,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8424,10 +8403,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8453,10 +8432,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8482,10 +8461,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8511,10 +8490,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8540,10 +8519,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8569,10 +8548,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8598,10 +8577,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8627,10 +8606,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8656,10 +8635,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8685,10 +8664,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G224" t="n">
         <v>5</v>
@@ -8714,10 +8693,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G225" t="n">
         <v>128</v>
@@ -8743,10 +8722,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8772,10 +8751,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8801,10 +8780,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8830,10 +8809,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8859,10 +8838,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8888,10 +8867,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8917,10 +8896,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8946,10 +8925,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8975,10 +8954,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
         <v>4</v>
@@ -9004,10 +8983,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9033,10 +9012,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9062,10 +9041,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9091,10 +9070,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9120,10 +9099,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9149,10 +9128,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9178,10 +9157,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9207,10 +9186,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9236,10 +9215,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9265,10 +9244,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9294,10 +9273,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9323,10 +9302,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9352,10 +9331,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9381,10 +9360,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9410,10 +9389,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9439,10 +9418,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9468,10 +9447,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9497,10 +9476,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9526,10 +9505,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9555,10 +9534,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9584,10 +9563,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9613,10 +9592,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9642,10 +9621,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9671,10 +9650,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9700,10 +9679,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9729,10 +9708,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9758,10 +9737,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9787,10 +9766,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9816,10 +9795,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9845,10 +9824,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9874,10 +9853,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9903,10 +9882,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9932,10 +9911,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9961,10 +9940,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -9990,10 +9969,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10019,10 +9998,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10048,10 +10027,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10077,10 +10056,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10106,10 +10085,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10135,10 +10114,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10164,10 +10143,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10193,10 +10172,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G276" t="n">
         <v>4</v>
@@ -10222,10 +10201,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G277" t="n">
         <v>4</v>
@@ -10251,10 +10230,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10280,10 +10259,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10309,10 +10288,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10338,10 +10317,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10367,10 +10346,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10396,10 +10375,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10425,10 +10404,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10454,10 +10433,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10483,10 +10462,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10512,10 +10491,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10541,10 +10520,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10570,10 +10549,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10599,10 +10578,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10628,10 +10607,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10657,10 +10636,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10686,10 +10665,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10715,10 +10694,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G294" t="n">
         <v>4</v>
@@ -10744,10 +10723,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10773,10 +10752,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10802,10 +10781,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10831,10 +10810,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10860,10 +10839,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10889,10 +10868,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10918,10 +10897,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10947,10 +10926,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G302" t="n">
         <v>6</v>
@@ -10976,10 +10955,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11005,10 +10984,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11034,10 +11013,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11063,10 +11042,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11092,10 +11071,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11121,10 +11100,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11150,10 +11129,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11179,10 +11158,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11208,10 +11187,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11237,10 +11216,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11266,10 +11245,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11295,10 +11274,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G314" t="n">
         <v>3</v>
@@ -11324,10 +11303,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11353,10 +11332,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G316" t="n">
         <v>13</v>
@@ -11382,10 +11361,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F317" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
